--- a/data/long_bre/P23_6-Estudios-long_bre.xlsx
+++ b/data/long_bre/P23_6-Estudios-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30,15%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-7,0%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 12,07</t>
+          <t>-9,28; 14,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 11,22</t>
+          <t>-2,02; 12,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 67,8</t>
+          <t>-12,42; 10,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 102,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-33,75; 101,37</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-11,5; 114,35</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-48,27; 78,21</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,78%</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-8,75%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-4,38%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,47%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 10,14</t>
+          <t>-21,37; 8,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 10,7</t>
+          <t>-12,48; 12,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 19,48</t>
+          <t>-18,8; 14,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 19,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-29,86; 16,61</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-18,24; 24,21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-29,62; 31,34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,47%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20,21%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-7,39%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 10,36</t>
+          <t>-7,17; 12,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 6,7</t>
+          <t>-19,87; 7,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 100,24</t>
+          <t>-10,06; 16,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 41,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-34,31; 130,26</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-55,61; 49,75</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-33,24; 104,74</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 6,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 5,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 35,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 38,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 5,29</t>
+          <t>-6,11; 7,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 5,88</t>
+          <t>-5,73; 5,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 9,07</t>
+          <t>-6,71; 6,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 9,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-27,02; 46,07</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-28,34; 42,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-32,5; 46,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-0,77%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,56</t>
+          <t>-8,68; 8,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 5,8</t>
+          <t>-6,57; 6,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 63,08</t>
+          <t>-6,75; 10,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 47,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; 15,49</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 9,6</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-10,25; 19,2</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-18,58%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-1,09%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-7,92%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 7,02</t>
+          <t>-10,2; 6,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 3,0</t>
+          <t>-5,28; 5,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 59,46</t>
+          <t>-10,53; 5,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 26,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-35,28; 42,42</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-27,83; 40,59</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-39,58; 31,59</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 9,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 4,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 14,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 6,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-20,5%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 5,36</t>
+          <t>-6,62; 7,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 10,36</t>
+          <t>-10,42; 2,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 42,84</t>
+          <t>-3,4; 7,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,76; 114,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-35,89; 71,25</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-48,46; 20,51</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-28,26; 94,82</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-3,19%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-4,02%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,6</t>
+          <t>-7,58; 9,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,61</t>
+          <t>-8,95; 5,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 26,17</t>
+          <t>-10,48; 7,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 27,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-10,51; 15,53</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-11,86; 7,76</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-14,13; 11,29</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-13,83%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>47,56%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 3,72</t>
+          <t>-9,94; 4,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 3,04</t>
+          <t>0,74; 10,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 6,13</t>
+          <t>-10,46; 7,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 4,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-45,78; 36,07</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>4,32; 110,18</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-38,98; 47,29</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1732,838 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 36,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 38,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-3,77</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-15,62%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-15,61; 5,1</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-50,55; 30,7</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-1,49%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 12,19</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-16,68; 21,67</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>39,98%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 12,58</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-17,57; 157,25</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-1,08%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 4,65</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 3,22</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 5,3</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-18,78; 26,69</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-19,9; 23,7</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-18,71; 40,24</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-1,39%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-2,14%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 4,79</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 3,22</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 5,4</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-9,35; 8,05</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; 4,98</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-10,42; 9,23</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-0,83%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 4,58</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-2,82; 5,01</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 4,81</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-19,15; 30,54</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-14,52; 36,86</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-22,52; 25,55</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_6-Estudios-long_bre.xlsx
+++ b/data/long_bre/P23_6-Estudios-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -708,7 +708,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -792,7 +792,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -964,7 +964,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1048,7 +1048,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1220,7 +1220,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1476,7 +1476,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
